--- a/balance_sheet_report.xlsx
+++ b/balance_sheet_report.xlsx
@@ -525,7 +525,7 @@
       </c>
       <c r="C7" s="6" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D7" s="6" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="C8" s="6" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D8" s="6" t="inlineStr">
@@ -561,7 +561,7 @@
       <c r="B9" s="4" t="inlineStr"/>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>6.62</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D11" s="6" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D12" s="6" t="inlineStr">
@@ -629,7 +629,7 @@
       <c r="B13" s="4" t="inlineStr"/>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>6.62</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D15" s="6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="C16" s="6" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D16" s="6" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="C17" s="6" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D17" s="6" t="inlineStr">
@@ -719,7 +719,7 @@
       <c r="B18" s="4" t="inlineStr"/>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>9.93</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
@@ -737,7 +737,7 @@
       <c r="B19" s="4" t="inlineStr"/>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>23.16</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D23" s="6" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="C24" s="6" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D24" s="6" t="inlineStr">
@@ -815,7 +815,7 @@
       <c r="B25" s="4" t="inlineStr"/>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>6.62</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="C27" s="6" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D27" s="6" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="C28" s="6" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D28" s="6" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="C29" s="6" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D29" s="6" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="C30" s="6" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D30" s="6" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="C31" s="6" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D31" s="6" t="inlineStr">
@@ -949,7 +949,7 @@
       <c r="B32" s="4" t="inlineStr"/>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>16.54</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
@@ -967,7 +967,7 @@
       <c r="B33" s="4" t="inlineStr"/>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>23.16</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
